--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD69B68E-2627-42E4-BAA0-11D7367A447D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C17240-721B-4850-8AD0-576479D69186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1610,6 +1610,9 @@
       <c r="C10" t="s">
         <v>364</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1618,6 +1621,9 @@
       <c r="C11" t="s">
         <v>365</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1626,6 +1632,9 @@
       <c r="C12" t="s">
         <v>366</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1633,6 +1642,9 @@
       </c>
       <c r="C13" t="s">
         <v>367</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3487,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4161,75 +4173,120 @@
       <c r="A82" t="s">
         <v>253</v>
       </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>254</v>
       </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>255</v>
       </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>256</v>
       </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>257</v>
       </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>258</v>
       </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>259</v>
       </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>260</v>
       </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>261</v>
       </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>262</v>
       </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>263</v>
       </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>264</v>
       </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>265</v>
       </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>266</v>
       </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>267</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C17240-721B-4850-8AD0-576479D69186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FA716-B035-4DFA-85BE-B9E103EDF44E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="390">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1203,6 +1203,10 @@
   </si>
   <si>
     <t xml:space="preserve"> ForgeMultipart by Chicken Bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CLIENT] InventoryTweaks by kobata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1530,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A212" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3499,8 +3503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4289,162 +4293,225 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>299</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FA716-B035-4DFA-85BE-B9E103EDF44E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C1B3A-A908-4CD2-ABEB-9B4DB5428AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$375</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$375</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$188</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="391">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1207,6 +1207,10 @@
   </si>
   <si>
     <t xml:space="preserve"> [CLIENT] InventoryTweaks by kobata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Railcraft by CovertJaguar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1534,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3492,7 +3496,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A375" xr:uid="{64284F89-EDC6-4AAF-9185-1D212751FC58}"/>
+  <autoFilter ref="A1:D375" xr:uid="{18B790CB-2957-4AC5-9362-26D4AE83529F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3503,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4465,213 +4469,318 @@
       <c r="A118" t="s">
         <v>289</v>
       </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>290</v>
       </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>291</v>
       </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>292</v>
       </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>293</v>
       </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>294</v>
       </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>295</v>
       </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>296</v>
       </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>297</v>
       </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>298</v>
       </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>331</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C1B3A-A908-4CD2-ABEB-9B4DB5428AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4E03E-5585-4B80-B50C-CC7216F81338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,9 +1137,6 @@
     <t>Iron Tanks 1.1.16</t>
   </si>
   <si>
-    <t>Tec Tech 3.3.7</t>
-  </si>
-  <si>
     <t>Thaumic Bases 1.4.18-0</t>
   </si>
   <si>
@@ -1211,6 +1208,10 @@
   </si>
   <si>
     <t xml:space="preserve"> Railcraft by CovertJaguar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tec Tech 3.6.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1550,10 +1551,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,6 +1663,9 @@
       <c r="C14" t="s">
         <v>368</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1670,13 +1674,19 @@
       <c r="C15" t="s">
         <v>369</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>390</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,7 +1694,7 @@
         <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1692,7 +1702,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,7 +1720,7 @@
         <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1723,7 +1733,7 @@
         <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1731,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,7 +1749,7 @@
         <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1812,7 +1822,7 @@
         <v>191</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3507,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3519,13 +3529,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
         <v>377</v>
       </c>
-      <c r="B1" t="s">
-        <v>378</v>
-      </c>
       <c r="E1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3536,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3547,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3750,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3947,7 +3957,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3971,7 +3981,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -4099,7 +4109,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4315,7 +4325,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4619,7 +4629,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4749,118 +4759,151 @@
       <c r="A153" t="s">
         <v>324</v>
       </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>325</v>
       </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>326</v>
       </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>327</v>
       </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>328</v>
       </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>329</v>
       </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>330</v>
       </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>347</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4E03E-5585-4B80-B50C-CC7216F81338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB22E8DB-6EA4-4BC4-8016-C52DECB84AC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="397">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -492,9 +492,6 @@
     <t>1.7.10-2.5.555</t>
   </si>
   <si>
-    <t>1.7.10-1.8.9.12</t>
-  </si>
-  <si>
     <t>1.7.10-1.2.1d</t>
   </si>
   <si>
@@ -1108,9 +1105,6 @@
   </si>
   <si>
     <t>New Mods:</t>
-  </si>
-  <si>
-    <t>Open Glasses 1.0.46</t>
   </si>
   <si>
     <t>Mod Upgrade:</t>
@@ -1212,6 +1206,38 @@
   </si>
   <si>
     <t>Tec Tech 3.6.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ThaumicExploration by nekosune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TinkersDefense by Lance5057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TinkersConstruct by mDiyo, boni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7.10-1.8.9.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UtilityWorlds by Zarkov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Witchery by Emoniph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> WirelessRedstoneChickenBonesEdition by Chicken Bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Glasses 1.0.46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,259 +1563,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:G375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" t="s">
         <v>379</v>
       </c>
-      <c r="C1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="G2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1799,7 +1844,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1809,7 +1854,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1819,10 +1864,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1832,7 +1877,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1842,7 +1887,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1852,7 +1897,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1862,7 +1907,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1872,7 +1917,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -1882,7 +1927,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -1892,7 +1937,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -1902,7 +1947,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -1912,7 +1957,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
@@ -1922,7 +1967,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -1932,7 +1977,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
@@ -1942,7 +1987,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -1952,7 +1997,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1962,7 +2007,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -1972,7 +2017,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
@@ -1982,7 +2027,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
@@ -1992,7 +2037,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
@@ -2002,7 +2047,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -2012,7 +2057,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
@@ -2022,7 +2067,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
@@ -2032,7 +2077,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -2042,7 +2087,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -2052,7 +2097,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
@@ -2062,7 +2107,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -2072,7 +2117,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
@@ -2082,7 +2127,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -2092,7 +2137,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -2102,7 +2147,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -2112,7 +2157,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
@@ -2122,7 +2167,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -2132,7 +2177,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -2142,7 +2187,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
@@ -2152,7 +2197,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -2162,7 +2207,7 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
@@ -2172,7 +2217,7 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
@@ -2182,7 +2227,7 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -2192,7 +2237,7 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
@@ -2202,7 +2247,7 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
@@ -2212,7 +2257,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -2222,7 +2267,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
@@ -2232,7 +2277,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
@@ -2242,7 +2287,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -2252,7 +2297,7 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
@@ -2262,7 +2307,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
@@ -2272,7 +2317,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
@@ -2282,7 +2327,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
@@ -2292,7 +2337,7 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -2302,7 +2347,7 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
@@ -2312,7 +2357,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
@@ -2322,7 +2367,7 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
@@ -2332,7 +2377,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
@@ -2342,7 +2387,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
@@ -2352,7 +2397,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
@@ -2362,7 +2407,7 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
@@ -2372,7 +2417,7 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
@@ -2382,7 +2427,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
@@ -2392,7 +2437,7 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
@@ -2402,7 +2447,7 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
@@ -2412,7 +2457,7 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
@@ -2422,7 +2467,7 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
@@ -2432,7 +2477,7 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
@@ -2442,7 +2487,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
@@ -2452,7 +2497,7 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
@@ -2462,7 +2507,7 @@
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
@@ -2472,7 +2517,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
@@ -2482,7 +2527,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -2492,7 +2537,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -2502,7 +2547,7 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
@@ -2512,7 +2557,7 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
@@ -2522,7 +2567,7 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
@@ -2532,7 +2577,7 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
@@ -2542,7 +2587,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
@@ -2552,7 +2597,7 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
@@ -2562,7 +2607,7 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
@@ -2572,7 +2617,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
@@ -2582,7 +2627,7 @@
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
@@ -2592,7 +2637,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -2602,7 +2647,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
@@ -2612,7 +2657,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
@@ -2622,7 +2667,7 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
@@ -2632,7 +2677,7 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
@@ -2642,7 +2687,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -2652,7 +2697,7 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
@@ -2662,7 +2707,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -2672,7 +2717,7 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
@@ -2682,7 +2727,7 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
@@ -2692,7 +2737,7 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
@@ -2702,7 +2747,7 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
@@ -2712,7 +2757,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -2722,7 +2767,7 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
@@ -2732,7 +2777,7 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
@@ -2742,7 +2787,7 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
@@ -2752,7 +2797,7 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
@@ -2762,7 +2807,7 @@
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
@@ -2772,7 +2817,7 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
@@ -2782,7 +2827,7 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
@@ -2792,7 +2837,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
@@ -2802,7 +2847,7 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
@@ -2812,7 +2857,7 @@
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
@@ -2822,7 +2867,7 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
@@ -2832,7 +2877,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
@@ -2842,7 +2887,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
@@ -2852,7 +2897,7 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
@@ -2862,7 +2907,7 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
@@ -2872,7 +2917,7 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
@@ -2882,7 +2927,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -2892,7 +2937,7 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
@@ -2902,7 +2947,7 @@
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
@@ -2912,7 +2957,7 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
@@ -2922,7 +2967,7 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
@@ -2932,7 +2977,7 @@
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
@@ -2942,7 +2987,7 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
@@ -2952,7 +2997,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
@@ -2962,7 +3007,7 @@
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
@@ -2972,7 +3017,7 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
@@ -2982,7 +3027,7 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
@@ -2992,7 +3037,7 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
@@ -3002,7 +3047,7 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
@@ -3012,7 +3057,7 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
@@ -3022,7 +3067,7 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
@@ -3032,7 +3077,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -3042,7 +3087,7 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
@@ -3052,7 +3097,7 @@
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
@@ -3062,7 +3107,7 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
@@ -3072,7 +3117,7 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
@@ -3082,7 +3127,7 @@
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
@@ -3092,7 +3137,7 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
@@ -3102,7 +3147,7 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
@@ -3112,7 +3157,7 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
@@ -3122,7 +3167,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
@@ -3132,7 +3177,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
@@ -3142,7 +3187,7 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
@@ -3152,7 +3197,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
@@ -3162,7 +3207,7 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
@@ -3172,7 +3217,7 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
@@ -3182,7 +3227,7 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
@@ -3192,7 +3237,7 @@
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
@@ -3202,7 +3247,7 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
@@ -3212,7 +3257,7 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
@@ -3222,7 +3267,7 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
@@ -3232,7 +3277,7 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
@@ -3242,7 +3287,7 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
@@ -3252,7 +3297,7 @@
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
@@ -3262,7 +3307,7 @@
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
@@ -3272,7 +3317,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -3282,7 +3327,7 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
@@ -3292,7 +3337,7 @@
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
@@ -3302,117 +3347,117 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>155</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
@@ -3422,27 +3467,27 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
@@ -3452,57 +3497,57 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3517,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3529,40 +3574,40 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3570,7 +3615,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3578,7 +3623,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3586,7 +3631,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -3594,7 +3639,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3602,7 +3647,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3610,7 +3655,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3618,7 +3663,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3626,7 +3671,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3634,7 +3679,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3642,7 +3687,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3650,7 +3695,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3658,7 +3703,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3666,7 +3711,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -3674,7 +3719,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3682,7 +3727,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3690,7 +3735,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3698,7 +3743,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3706,7 +3751,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3714,7 +3759,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3722,7 +3767,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3730,7 +3775,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3738,7 +3783,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -3746,7 +3791,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3754,18 +3799,18 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3773,7 +3818,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -3781,7 +3826,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3789,7 +3834,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3797,7 +3842,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -3805,7 +3850,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3813,7 +3858,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3821,7 +3866,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3829,7 +3874,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3837,7 +3882,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3845,7 +3890,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3853,7 +3898,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3861,7 +3906,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3869,7 +3914,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3877,7 +3922,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3885,7 +3930,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3893,7 +3938,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3901,7 +3946,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -3909,7 +3954,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3917,7 +3962,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3925,7 +3970,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3933,7 +3978,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3941,7 +3986,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3949,7 +3994,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3957,7 +4002,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3965,7 +4010,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3973,7 +4018,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3981,7 +4026,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3989,7 +4034,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3997,7 +4042,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4005,7 +4050,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -4013,7 +4058,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4021,7 +4066,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4029,7 +4074,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4037,7 +4082,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4045,7 +4090,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4053,7 +4098,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4061,7 +4106,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4069,7 +4114,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4077,7 +4122,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4085,7 +4130,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4093,7 +4138,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4101,7 +4146,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4109,7 +4154,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4117,7 +4162,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4125,7 +4170,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4133,7 +4178,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4141,7 +4186,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -4149,7 +4194,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4157,7 +4202,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4165,7 +4210,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4173,7 +4218,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4181,7 +4226,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4189,7 +4234,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4197,7 +4242,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4205,7 +4250,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -4213,7 +4258,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4221,7 +4266,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4229,7 +4274,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4237,7 +4282,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -4245,7 +4290,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -4253,7 +4298,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -4261,7 +4306,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4269,7 +4314,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4277,7 +4322,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4285,7 +4330,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4293,7 +4338,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4301,7 +4346,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4309,7 +4354,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4317,7 +4362,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -4325,7 +4370,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4333,7 +4378,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4341,7 +4386,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -4349,7 +4394,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -4357,7 +4402,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4365,7 +4410,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4373,7 +4418,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -4381,7 +4426,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -4389,7 +4434,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -4397,7 +4442,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4405,7 +4450,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -4413,7 +4458,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4421,7 +4466,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -4429,7 +4474,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -4437,7 +4482,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -4445,7 +4490,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -4453,7 +4498,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4461,7 +4506,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4469,7 +4514,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -4477,7 +4522,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4485,7 +4530,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -4493,7 +4538,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4501,7 +4546,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -4509,7 +4554,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4517,7 +4562,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4525,7 +4570,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4533,7 +4578,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4541,7 +4586,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -4549,7 +4594,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -4557,7 +4602,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4565,7 +4610,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4573,7 +4618,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4581,7 +4626,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4589,7 +4634,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4597,7 +4642,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -4605,7 +4650,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4613,7 +4658,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4621,7 +4666,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4629,7 +4674,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4637,7 +4682,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4645,7 +4690,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -4653,7 +4698,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4661,7 +4706,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -4669,7 +4714,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4677,7 +4722,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -4685,7 +4730,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -4693,7 +4738,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4701,7 +4746,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -4709,7 +4754,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -4717,7 +4762,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4725,7 +4770,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4733,7 +4778,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4741,7 +4786,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4749,7 +4794,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4757,7 +4802,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4765,7 +4810,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -4773,7 +4818,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4781,7 +4826,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4789,7 +4834,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -4797,7 +4842,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4805,7 +4850,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4813,7 +4858,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -4821,7 +4866,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -4829,32 +4874,47 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>335</v>
+        <v>389</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4862,22 +4922,31 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>340</v>
+        <v>391</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>341</v>
+        <v>390</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4885,87 +4954,138 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>393</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>359</v>
+      <c r="B188">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB22E8DB-6EA4-4BC4-8016-C52DECB84AC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E02E0E-6695-4379-BE26-F472B2AA5E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="396">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1178,10 +1178,6 @@
   </si>
   <si>
     <t>2=无需资源包汉化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extratrees</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1565,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1611,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1722,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3352,7 +3348,7 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
@@ -3562,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3709,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -3717,7 +3713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -3725,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -3733,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -3741,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -3757,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -3765,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -3773,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -3781,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -3789,7 +3785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -3797,18 +3793,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>198</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>199</v>
       </c>
@@ -3816,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -3824,7 +3817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -3832,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -4002,7 +3995,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4026,7 +4019,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -4154,7 +4147,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4370,7 +4363,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4674,7 +4667,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4890,7 +4883,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4917,7 +4910,7 @@
         <v>337</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4930,7 +4923,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4938,7 +4931,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5002,7 +4995,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5050,7 +5043,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5058,7 +5051,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B185">
         <v>1</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E02E0E-6695-4379-BE26-F472B2AA5E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E37358-3526-470B-B2FA-777CA8A73674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="mod版本与更新日志" sheetId="1" r:id="rId1"/>
+    <sheet name="mod汉化状态" sheetId="2" r:id="rId2"/>
+    <sheet name="scripts汉化状态" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$375</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod版本与更新日志!$A$1:$D$375</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="438">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1235,6 +1236,133 @@
   <si>
     <t>Open Glasses 1.0.46</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv-Solar-Panel</t>
+  </si>
+  <si>
+    <t>Advanced-Backpacks</t>
+  </si>
+  <si>
+    <t>AE2</t>
+  </si>
+  <si>
+    <t>Blood-Magic-Thaumcraft</t>
+  </si>
+  <si>
+    <t>Build-Craft</t>
+  </si>
+  <si>
+    <t>Chisel</t>
+  </si>
+  <si>
+    <t>CoreMod</t>
+  </si>
+  <si>
+    <t>Emt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ender-IO</t>
+  </si>
+  <si>
+    <t>Extra-Bees</t>
+  </si>
+  <si>
+    <t>Forbidden-Magic-01-Wands</t>
+  </si>
+  <si>
+    <t>Forbidden-Magic</t>
+  </si>
+  <si>
+    <t>Forestry-Frames</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Gadomancy</t>
+  </si>
+  <si>
+    <t>Galaxy-Space</t>
+  </si>
+  <si>
+    <t>GraviSuite</t>
+  </si>
+  <si>
+    <t>Gregtech</t>
+  </si>
+  <si>
+    <t>Iron-Chests-Minecarts</t>
+  </si>
+  <si>
+    <t>Iron-Chests</t>
+  </si>
+  <si>
+    <t>Magic-Bees</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Natura</t>
+  </si>
+  <si>
+    <t>Open-Blocks</t>
+  </si>
+  <si>
+    <t>Project_Red</t>
+  </si>
+  <si>
+    <t>Railcraft</t>
+  </si>
+  <si>
+    <t>Renaming</t>
+  </si>
+  <si>
+    <t>Tainted-Magic-1</t>
+  </si>
+  <si>
+    <t>Thaumcraft-01-Basic</t>
+  </si>
+  <si>
+    <t>Thaumcraft-02-Thaumaturgy-1</t>
+  </si>
+  <si>
+    <t>Thaumcraft-03-Alchemy</t>
+  </si>
+  <si>
+    <t>Thaumcraft-04-Artifice</t>
+  </si>
+  <si>
+    <t>Thaumcraft-05-Golemancy</t>
+  </si>
+  <si>
+    <t>Thaumcraft-06-Eldritch</t>
+  </si>
+  <si>
+    <t>Thaumic-Bases-01-Main</t>
+  </si>
+  <si>
+    <t>Thaumic-Energistics</t>
+  </si>
+  <si>
+    <t>Thaumic-Exploration-01</t>
+  </si>
+  <si>
+    <t>ThaumicTinkerer-01</t>
+  </si>
+  <si>
+    <t>ThaumicTinkerer-02-Kami</t>
+  </si>
+  <si>
+    <t>Tinkers-Construct</t>
+  </si>
+  <si>
+    <t>Warp-Theory</t>
+  </si>
+  <si>
+    <t>Witchery</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
@@ -5087,4 +5215,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>427</v>
+      </c>
+      <c r="C32">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C33">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>434</v>
+      </c>
+      <c r="C39">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E37358-3526-470B-B2FA-777CA8A73674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE403BE-62DE-4EDB-9036-F2C09055B38F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mod版本与更新日志" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="scripts汉化状态" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod版本与更新日志!$A$1:$D$375</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1253,9 +1254,6 @@
     <t>Build-Craft</t>
   </si>
   <si>
-    <t>Chisel</t>
-  </si>
-  <si>
     <t>CoreMod</t>
   </si>
   <si>
@@ -1272,18 +1270,12 @@
     <t>Forbidden-Magic-01-Wands</t>
   </si>
   <si>
-    <t>Forbidden-Magic</t>
-  </si>
-  <si>
     <t>Forestry-Frames</t>
   </si>
   <si>
     <t>Forestry</t>
   </si>
   <si>
-    <t>Gadomancy</t>
-  </si>
-  <si>
     <t>Galaxy-Space</t>
   </si>
   <si>
@@ -1305,15 +1297,9 @@
     <t>Minecraft</t>
   </si>
   <si>
-    <t>Natura</t>
-  </si>
-  <si>
     <t>Open-Blocks</t>
   </si>
   <si>
-    <t>Project_Red</t>
-  </si>
-  <si>
     <t>Railcraft</t>
   </si>
   <si>
@@ -1323,30 +1309,12 @@
     <t>Tainted-Magic-1</t>
   </si>
   <si>
-    <t>Thaumcraft-01-Basic</t>
-  </si>
-  <si>
-    <t>Thaumcraft-02-Thaumaturgy-1</t>
-  </si>
-  <si>
     <t>Thaumcraft-03-Alchemy</t>
   </si>
   <si>
-    <t>Thaumcraft-04-Artifice</t>
-  </si>
-  <si>
-    <t>Thaumcraft-05-Golemancy</t>
-  </si>
-  <si>
-    <t>Thaumcraft-06-Eldritch</t>
-  </si>
-  <si>
     <t>Thaumic-Bases-01-Main</t>
   </si>
   <si>
-    <t>Thaumic-Energistics</t>
-  </si>
-  <si>
     <t>Thaumic-Exploration-01</t>
   </si>
   <si>
@@ -1363,6 +1331,53 @@
   </si>
   <si>
     <t>Witchery</t>
+  </si>
+  <si>
+    <t>scripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overrideName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.6.2更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Mod 1.6.04</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.04</t>
+  </si>
+  <si>
+    <t>Nodal Mechanic 1.1.0-K</t>
+  </si>
+  <si>
+    <t>Open Computers 1.7.3.1258</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.3.8</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1401,12 +1416,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1687,1995 +1773,2063 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:G380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="F7" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D10">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12">
+        <v>174</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14">
+        <v>175</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>387</v>
-      </c>
-      <c r="D16">
+        <v>176</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>368</v>
-      </c>
-      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D18">
+        <v>177</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" t="s">
-        <v>370</v>
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>179</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" t="s">
-        <v>371</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>372</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s">
-        <v>373</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>184</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>185</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" t="s">
-        <v>378</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>190</v>
+      </c>
+      <c r="B44" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>258</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>84</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>265</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>266</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>267</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>273</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>100</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>101</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>279</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>280</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>107</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>287</v>
+        <v>108</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>288</v>
+        <v>109</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>292</v>
+        <v>113</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>115</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>117</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>299</v>
+        <v>119</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>123</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>124</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>305</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>307</v>
+        <v>127</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>308</v>
+        <v>128</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>311</v>
+        <v>130</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>315</v>
+        <v>128</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>139</v>
+        <v>316</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>319</v>
+        <v>137</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>140</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>142</v>
+        <v>319</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>325</v>
+        <v>111</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>145</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>146</v>
+        <v>326</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>329</v>
+        <v>111</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>330</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>152</v>
+        <v>332</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>153</v>
+        <v>333</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>96</v>
+        <v>335</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>339</v>
+        <v>154</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>156</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>156</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>159</v>
+        <v>341</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>344</v>
+        <v>157</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>345</v>
+        <v>158</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>163</v>
+        <v>345</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>164</v>
+        <v>346</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>349</v>
+        <v>162</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>350</v>
+        <v>163</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>165</v>
+        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>352</v>
+        <v>126</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>354</v>
+        <v>166</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>168</v>
+        <v>352</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>169</v>
+        <v>353</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>170</v>
+        <v>354</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>171</v>
+        <v>355</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>358</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D375" xr:uid="{18B790CB-2957-4AC5-9362-26D4AE83529F}"/>
+  <autoFilter ref="A6:D380" xr:uid="{18B790CB-2957-4AC5-9362-26D4AE83529F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3686,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5219,354 +5373,408 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>396</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>397</v>
       </c>
-      <c r="C2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>398</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>399</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>870</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>400</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>401</v>
-      </c>
-      <c r="C6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>402</v>
       </c>
       <c r="C7">
         <v>326</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8">
         <v>805</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>404</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>405</v>
       </c>
       <c r="C10">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12">
+        <v>154</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>407</v>
       </c>
-      <c r="C12">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>408</v>
       </c>
-      <c r="C13">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>409</v>
       </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>410</v>
       </c>
-      <c r="C15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C16">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>411</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>412</v>
       </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>413</v>
       </c>
-      <c r="C18">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>189</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>414</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>415</v>
       </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>416</v>
       </c>
-      <c r="C21">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>417</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>418</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24">
+        <v>584</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>419</v>
       </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>138</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>420</v>
       </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>421</v>
       </c>
-      <c r="C26">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27">
+        <v>435</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>422</v>
       </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C28">
+        <v>381</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>423</v>
       </c>
-      <c r="C28">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>174</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>424</v>
       </c>
-      <c r="C29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>425</v>
       </c>
-      <c r="C30">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>426</v>
       </c>
-      <c r="C31">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>427</v>
-      </c>
       <c r="C32">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>428</v>
-      </c>
-      <c r="C33">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C34">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>430</v>
-      </c>
-      <c r="C35">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>431</v>
-      </c>
-      <c r="C36">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>432</v>
-      </c>
-      <c r="C37">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>433</v>
-      </c>
-      <c r="C38">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>434</v>
-      </c>
-      <c r="C39">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>435</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>436</v>
-      </c>
-      <c r="C41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>437</v>
-      </c>
-      <c r="C42">
         <v>120</v>
       </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H43" xr:uid="{4F126F61-AA49-451A-B5A2-594628A094AE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE403BE-62DE-4EDB-9036-F2C09055B38F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762153F9-CCEE-4B1B-992D-81A7B55F1602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mod版本与更新日志" sheetId="1" r:id="rId1"/>
@@ -1775,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -5375,8 +5375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5457,6 +5457,9 @@
       <c r="A5" t="s">
         <v>399</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>870</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762153F9-CCEE-4B1B-992D-81A7B55F1602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441BF03-CF7E-4B21-845F-9E65950DC1F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5474,6 +5474,9 @@
       <c r="A6" t="s">
         <v>400</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>15</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441BF03-CF7E-4B21-845F-9E65950DC1F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A12533-A1FE-4040-847E-9D75FA4BBC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mod版本与更新日志" sheetId="1" r:id="rId1"/>
-    <sheet name="mod汉化状态" sheetId="2" r:id="rId2"/>
+    <sheet name="mod汉化状态" sheetId="2" r:id="rId1"/>
+    <sheet name="mod版本与更新日志" sheetId="1" r:id="rId2"/>
     <sheet name="scripts汉化状态" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -1772,6 +1772,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
+  <dimension ref="A1:E188"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>383</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>283</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>284</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>286</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>288</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>290</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>292</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>295</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>298</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>299</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>301</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>303</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>304</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>305</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>306</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>386</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>308</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>309</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>311</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>312</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>313</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>315</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>316</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>319</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>320</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>321</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>322</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>323</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>324</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>325</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>327</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>328</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>331</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>332</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>333</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>388</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>335</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>336</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>337</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>338</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>390</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>389</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>341</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>392</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>349</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>350</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>394</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>393</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>356</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>358</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B188" xr:uid="{348103F4-7D95-47F6-8E06-BD261AE2E713}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G380"/>
   <sheetViews>
@@ -3836,1547 +5371,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
-  <dimension ref="A1:E188"/>
-  <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>221</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>382</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>383</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>230</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>233</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>235</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>236</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>238</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>239</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>240</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>384</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>243</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>244</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>246</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>248</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>249</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>250</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>252</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>253</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>254</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>255</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>256</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>257</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>261</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>262</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>263</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>264</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>265</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>266</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>267</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>268</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>385</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>271</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>272</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>273</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>274</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>275</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>276</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>277</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>278</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>279</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>280</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>281</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>282</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>283</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>284</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>285</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>286</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>287</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>288</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>289</v>
-      </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>290</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>291</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>292</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>293</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>295</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>296</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>297</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>298</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>299</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>300</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>301</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>302</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>303</v>
-      </c>
-      <c r="B133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>304</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>305</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>306</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>386</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>308</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>309</v>
-      </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>310</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>311</v>
-      </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>312</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>313</v>
-      </c>
-      <c r="B143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>314</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>315</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>316</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>317</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>318</v>
-      </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>319</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>320</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>321</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>322</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>323</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>324</v>
-      </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>325</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>326</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>327</v>
-      </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>328</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>329</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>330</v>
-      </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>331</v>
-      </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>332</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>333</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>388</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>335</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>336</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>337</v>
-      </c>
-      <c r="B167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>338</v>
-      </c>
-      <c r="B168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>390</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>389</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>341</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>342</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>343</v>
-      </c>
-      <c r="B173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>344</v>
-      </c>
-      <c r="B174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>345</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>346</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>347</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>392</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>349</v>
-      </c>
-      <c r="B179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>350</v>
-      </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>351</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>352</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>353</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>394</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>393</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>356</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>357</v>
-      </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>358</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B188" xr:uid="{348103F4-7D95-47F6-8E06-BD261AE2E713}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5488,6 +5488,9 @@
       <c r="A7" t="s">
         <v>401</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7">
         <v>326</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A12533-A1FE-4040-847E-9D75FA4BBC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEBF552-ED1D-4D43-B76D-B1642FE138AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5502,6 +5502,9 @@
       <c r="A8" t="s">
         <v>402</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>805</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEBF552-ED1D-4D43-B76D-B1642FE138AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AC9BB3-53B8-423B-A379-42FD2AA9A802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5516,6 +5516,9 @@
       <c r="A9" t="s">
         <v>403</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -5527,6 +5530,9 @@
       <c r="A10" t="s">
         <v>404</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <v>41</v>
       </c>
@@ -5537,6 +5543,9 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>405</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>132</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AC9BB3-53B8-423B-A379-42FD2AA9A802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24EAFF-187A-4626-8603-547D81C8DF58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5558,6 +5558,9 @@
       <c r="A12" t="s">
         <v>406</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
         <v>154</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24EAFF-187A-4626-8603-547D81C8DF58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD61C2B-6E16-4D67-ACDE-7F3788B243C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1775,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2591,7 +2591,7 @@
         <v>270</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -2599,7 +2599,7 @@
         <v>271</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,8 +5375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5572,6 +5572,9 @@
       <c r="A13" t="s">
         <v>407</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
         <v>25</v>
       </c>
@@ -5586,6 +5589,9 @@
       <c r="A14" t="s">
         <v>408</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="C14">
         <v>2</v>
       </c>
@@ -5611,6 +5617,9 @@
       <c r="A16" t="s">
         <v>410</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="C16">
         <v>69</v>
       </c>
@@ -5622,6 +5631,9 @@
       <c r="A17" t="s">
         <v>411</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -5633,6 +5645,9 @@
       <c r="A18" t="s">
         <v>412</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="C18">
         <v>3</v>
       </c>
@@ -5654,6 +5669,9 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>414</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
         <v>9</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD61C2B-6E16-4D67-ACDE-7F3788B243C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E983C75E-CCB5-4802-967C-B9F6400583A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -5375,17 +5375,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5652,6 +5652,9 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E983C75E-CCB5-4802-967C-B9F6400583A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF724803-3D13-4450-812E-FEAF2D811C45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,22 +1345,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>overrideName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Research</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addTooltip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.0.6.2更新日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1378,6 +1366,18 @@
   </si>
   <si>
     <t>Tec Tech 3.3.8</t>
+  </si>
+  <si>
+    <t>OverrideName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -3383,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -3396,7 +3396,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -3409,7 +3409,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="F11" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -3437,7 +3437,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -5376,16 +5376,16 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5399,16 +5399,16 @@
         <v>429</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF724803-3D13-4450-812E-FEAF2D811C45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE45ABF3-7140-4C6C-9316-2E0E56812F30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="443">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1377,6 +1377,17 @@
   </si>
   <si>
     <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5376,7 +5387,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5415,247 +5426,247 @@
       <c r="A2" t="s">
         <v>396</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>442</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>397</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>442</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>398</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>442</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>399</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>442</v>
       </c>
       <c r="C5">
         <v>870</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>400</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>442</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>401</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>442</v>
       </c>
       <c r="C7">
         <v>326</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
+      <c r="G7" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>402</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>442</v>
       </c>
       <c r="C8">
         <v>805</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
+      <c r="G8" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>403</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>442</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>404</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>442</v>
       </c>
       <c r="C10">
         <v>41</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
+      <c r="G10" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>405</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>442</v>
       </c>
       <c r="C11">
         <v>132</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="G11" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>406</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>442</v>
       </c>
       <c r="C12">
         <v>154</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
+      <c r="E12" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>407</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>442</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>408</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>442</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
+      <c r="D14" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>409</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>442</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
+      <c r="F15" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>410</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>442</v>
       </c>
       <c r="C16">
         <v>69</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
+      <c r="E16" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>411</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>442</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
+      <c r="D17" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>412</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>442</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
+      <c r="D18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5665,22 +5676,22 @@
       <c r="C19">
         <v>189</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
+      <c r="G19" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>414</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>442</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
+      <c r="D20" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5690,8 +5701,8 @@
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
+      <c r="G21" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -5701,22 +5712,25 @@
       <c r="C22">
         <v>74</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
+      <c r="F22" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>417</v>
       </c>
+      <c r="B23" t="s">
+        <v>442</v>
+      </c>
       <c r="C23">
         <v>14</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
+      <c r="E23" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5726,8 +5740,8 @@
       <c r="C24">
         <v>584</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="G24" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -5737,8 +5751,8 @@
       <c r="C25">
         <v>138</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
+      <c r="G25" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5748,8 +5762,8 @@
       <c r="C26">
         <v>168</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
+      <c r="G26" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5759,8 +5773,8 @@
       <c r="C27">
         <v>435</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
+      <c r="G27" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5770,8 +5784,8 @@
       <c r="C28">
         <v>381</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
+      <c r="G28" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5781,8 +5795,8 @@
       <c r="C29">
         <v>174</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
+      <c r="G29" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5792,8 +5806,8 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
+      <c r="E30" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5803,8 +5817,8 @@
       <c r="C31">
         <v>41</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
+      <c r="G31" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -5814,8 +5828,8 @@
       <c r="C32">
         <v>120</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
+      <c r="G32" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE45ABF3-7140-4C6C-9316-2E0E56812F30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9D357-59B9-4A11-98D0-DFEA938B3D0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="444">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1381,6 +1381,10 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
@@ -5387,7 +5391,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5673,6 +5677,9 @@
       <c r="A19" t="s">
         <v>413</v>
       </c>
+      <c r="B19" t="s">
+        <v>443</v>
+      </c>
       <c r="C19">
         <v>189</v>
       </c>
@@ -5698,6 +5705,9 @@
       <c r="A21" t="s">
         <v>415</v>
       </c>
+      <c r="B21" t="s">
+        <v>443</v>
+      </c>
       <c r="C21">
         <v>10</v>
       </c>
@@ -5708,6 +5718,9 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>416</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
       </c>
       <c r="C22">
         <v>74</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9D357-59B9-4A11-98D0-DFEA938B3D0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D21F4-DC50-4DD8-8FBF-9F6DCAE143FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="445">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1381,6 +1381,10 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
@@ -5391,7 +5395,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5816,6 +5820,9 @@
       <c r="A30" t="s">
         <v>424</v>
       </c>
+      <c r="B30" t="s">
+        <v>444</v>
+      </c>
       <c r="C30">
         <v>6</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D21F4-DC50-4DD8-8FBF-9F6DCAE143FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26221969-8B90-4C89-98E9-DD206AD2E833}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="446">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1381,6 +1381,10 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
@@ -1794,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -5395,7 +5399,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5432,58 +5436,52 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>442</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>441</v>
+        <v>870</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>442</v>
       </c>
       <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="C5">
-        <v>870</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>440</v>
@@ -5491,15 +5489,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B6" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5519,13 +5514,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C8">
-        <v>805</v>
+        <v>189</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>440</v>
@@ -5533,27 +5528,21 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>440</v>
@@ -5561,44 +5550,38 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>442</v>
       </c>
       <c r="C11">
-        <v>132</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C12">
-        <v>154</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
         <v>442</v>
       </c>
       <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>440</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>440</v>
@@ -5606,27 +5589,24 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B14" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>440</v>
@@ -5648,30 +5628,27 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
         <v>442</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>440</v>
@@ -5679,13 +5656,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19">
-        <v>189</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>440</v>
@@ -5693,13 +5673,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B20" t="s">
         <v>442</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>440</v>
@@ -5707,88 +5687,103 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" t="s">
         <v>443</v>
       </c>
       <c r="C22">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B23" t="s">
         <v>442</v>
       </c>
       <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="B24" t="s">
+        <v>442</v>
       </c>
       <c r="C24">
-        <v>584</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>397</v>
+      </c>
+      <c r="B25" t="s">
+        <v>442</v>
       </c>
       <c r="C25">
-        <v>138</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>420</v>
+        <v>424</v>
+      </c>
+      <c r="B26" t="s">
+        <v>444</v>
       </c>
       <c r="C26">
-        <v>168</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>412</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
       </c>
       <c r="C27">
-        <v>435</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>440</v>
@@ -5796,64 +5791,85 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>408</v>
+      </c>
+      <c r="B28" t="s">
+        <v>442</v>
       </c>
       <c r="C28">
-        <v>381</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>423</v>
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>442</v>
       </c>
       <c r="C29">
-        <v>174</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>440</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="B30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>425</v>
+        <v>403</v>
+      </c>
+      <c r="B31" t="s">
+        <v>442</v>
       </c>
       <c r="C31">
-        <v>41</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>426</v>
+        <v>411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>442</v>
       </c>
       <c r="C32">
-        <v>120</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>440</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H43" xr:uid="{4F126F61-AA49-451A-B5A2-594628A094AE}"/>
+  <autoFilter ref="A1:G32" xr:uid="{1BFB6A51-E435-4AD5-B5E3-1233AA04C29B}">
+    <sortState ref="A2:G32">
+      <sortCondition descending="1" ref="C2:C32"/>
+      <sortCondition ref="B2:B32" customList="Yes"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:G32">
+    <sortCondition ref="B2:B32" customList="Yes"/>
+    <sortCondition ref="C2:C32"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26221969-8B90-4C89-98E9-DD206AD2E833}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF724803-3D13-4450-812E-FEAF2D811C45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1377,29 +1377,6 @@
   </si>
   <si>
     <t>DisplayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -5399,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5436,440 +5413,413 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" t="s">
-        <v>442</v>
+        <v>396</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>870</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>440</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" t="s">
-        <v>442</v>
+        <v>397</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>805</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>440</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>398</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>584</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>440</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>399</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>435</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>440</v>
+        <v>870</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>381</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>440</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>401</v>
       </c>
-      <c r="B7" t="s">
-        <v>442</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>326</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>440</v>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" t="s">
-        <v>443</v>
+        <v>402</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>189</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>440</v>
+        <v>805</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>403</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>174</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>440</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>404</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>168</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>440</v>
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
+        <v>405</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>154</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>440</v>
+        <v>132</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>406</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>138</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>440</v>
+        <v>154</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" t="s">
-        <v>442</v>
+        <v>407</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>132</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>440</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>408</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>120</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>440</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>416</v>
-      </c>
-      <c r="B15" t="s">
-        <v>443</v>
+        <v>409</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>74</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>440</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>410</v>
       </c>
-      <c r="B16" t="s">
-        <v>442</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16">
         <v>69</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>440</v>
+      <c r="E16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>404</v>
-      </c>
-      <c r="B17" t="s">
-        <v>442</v>
+        <v>411</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>440</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>425</v>
-      </c>
-      <c r="B18" t="s">
-        <v>445</v>
+        <v>412</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>41</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>440</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>440</v>
+        <v>189</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>400</v>
-      </c>
-      <c r="B20" t="s">
-        <v>442</v>
+        <v>414</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>440</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>417</v>
-      </c>
-      <c r="B21" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>440</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>415</v>
-      </c>
-      <c r="B22" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>440</v>
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>414</v>
-      </c>
-      <c r="B23" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>440</v>
+        <v>14</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>409</v>
-      </c>
-      <c r="B24" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>440</v>
+        <v>584</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>397</v>
-      </c>
-      <c r="B25" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>440</v>
+        <v>138</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>424</v>
-      </c>
-      <c r="B26" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>440</v>
+        <v>168</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>412</v>
-      </c>
-      <c r="B27" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B28" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>440</v>
+        <v>381</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>441</v>
+        <v>174</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>398</v>
-      </c>
-      <c r="B30" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>440</v>
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>403</v>
-      </c>
-      <c r="B31" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>440</v>
+        <v>41</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B32" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>440</v>
+        <v>120</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G32" xr:uid="{1BFB6A51-E435-4AD5-B5E3-1233AA04C29B}">
-    <sortState ref="A2:G32">
-      <sortCondition descending="1" ref="C2:C32"/>
-      <sortCondition ref="B2:B32" customList="Yes"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:G32">
-    <sortCondition ref="B2:B32" customList="Yes"/>
-    <sortCondition ref="C2:C32"/>
-  </sortState>
+  <autoFilter ref="A1:H43" xr:uid="{4F126F61-AA49-451A-B5A2-594628A094AE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF724803-3D13-4450-812E-FEAF2D811C45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E983C75E-CCB5-4802-967C-B9F6400583A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,10 +1345,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>overrideName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Research</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.0.6.2更新日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1366,18 +1378,6 @@
   </si>
   <si>
     <t>Tec Tech 3.3.8</t>
-  </si>
-  <si>
-    <t>OverrideName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddTooltip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisplayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -3383,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -3396,7 +3396,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -3409,7 +3409,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="F11" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -3437,7 +3437,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -5376,16 +5376,16 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5399,16 +5399,16 @@
         <v>429</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E983C75E-CCB5-4802-967C-B9F6400583A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD61C2B-6E16-4D67-ACDE-7F3788B243C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -5375,17 +5375,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5652,9 +5652,6 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD61C2B-6E16-4D67-ACDE-7F3788B243C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24D3FF-5DEA-48B8-B250-B41A98502AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5375,8 +5375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5684,6 +5684,9 @@
       <c r="A21" t="s">
         <v>415</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="C21">
         <v>10</v>
       </c>
@@ -5695,6 +5698,9 @@
       <c r="A22" t="s">
         <v>416</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="C22">
         <v>74</v>
       </c>
@@ -5706,6 +5712,9 @@
       <c r="A23" t="s">
         <v>417</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23">
         <v>14</v>
       </c>
@@ -5785,6 +5794,9 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>424</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30">
         <v>6</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24D3FF-5DEA-48B8-B250-B41A98502AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D9AFE-672B-491E-9661-A38578E2C8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5740,6 +5740,9 @@
       <c r="A25" t="s">
         <v>419</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="C25">
         <v>138</v>
       </c>
@@ -5751,6 +5754,9 @@
       <c r="A26" t="s">
         <v>420</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26">
         <v>168</v>
       </c>
@@ -5784,6 +5790,9 @@
       <c r="A29" t="s">
         <v>423</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29">
         <v>174</v>
       </c>
@@ -5808,6 +5817,9 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>425</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>41</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D9AFE-672B-491E-9661-A38578E2C8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF7934-F6B7-43A9-B057-6C42E04D35E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5779,6 +5779,9 @@
       <c r="A28" t="s">
         <v>422</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28">
         <v>381</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF7934-F6B7-43A9-B057-6C42E04D35E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCBA5B6-DC64-443D-9A13-8CFF248E560A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="441">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1378,6 +1378,10 @@
   </si>
   <si>
     <t>Tec Tech 3.3.8</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5375,8 +5379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5413,58 +5417,52 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>399</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+        <v>870</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
       </c>
       <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
+        <v>805</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+        <v>584</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C5">
-        <v>870</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -5472,15 +5470,15 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>422</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
       </c>
       <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
+        <v>381</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5488,8 +5486,8 @@
       <c r="A7" t="s">
         <v>401</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>440</v>
       </c>
       <c r="C7">
         <v>326</v>
@@ -5500,13 +5498,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>440</v>
       </c>
       <c r="C8">
-        <v>805</v>
+        <v>189</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -5514,27 +5512,27 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>423</v>
+      </c>
+      <c r="B9" t="s">
+        <v>440</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+        <v>174</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>420</v>
+      </c>
+      <c r="B10" t="s">
+        <v>440</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -5542,44 +5540,41 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="B11" t="s">
+        <v>440</v>
       </c>
       <c r="C11">
-        <v>132</v>
-      </c>
-      <c r="G11" s="1">
+        <v>154</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>440</v>
       </c>
       <c r="C12">
-        <v>154</v>
-      </c>
-      <c r="E12" s="1">
+        <v>138</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>405</v>
+      </c>
+      <c r="B13" t="s">
+        <v>440</v>
       </c>
       <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -5587,27 +5582,24 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
+        <v>120</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>409</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>416</v>
+      </c>
+      <c r="B15" t="s">
+        <v>440</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -5617,8 +5609,8 @@
       <c r="A16" t="s">
         <v>410</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>440</v>
       </c>
       <c r="C16">
         <v>69</v>
@@ -5629,38 +5621,44 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+        <v>404</v>
+      </c>
+      <c r="B17" t="s">
+        <v>440</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>412</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>440</v>
       </c>
       <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>407</v>
+      </c>
+      <c r="B19" t="s">
+        <v>440</v>
       </c>
       <c r="C19">
-        <v>189</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -5668,13 +5666,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="B20" t="s">
+        <v>440</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -5682,168 +5680,181 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>417</v>
+      </c>
+      <c r="B21" t="s">
+        <v>440</v>
       </c>
       <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>416</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>415</v>
+      </c>
+      <c r="B22" t="s">
+        <v>440</v>
       </c>
       <c r="C22">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>417</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>414</v>
+      </c>
+      <c r="B23" t="s">
+        <v>440</v>
       </c>
       <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="B24" t="s">
+        <v>440</v>
       </c>
       <c r="C24">
-        <v>584</v>
-      </c>
-      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>397</v>
+      </c>
+      <c r="B25" t="s">
+        <v>440</v>
       </c>
       <c r="C25">
-        <v>138</v>
-      </c>
-      <c r="G25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>420</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>424</v>
+      </c>
+      <c r="B26" t="s">
+        <v>440</v>
       </c>
       <c r="C26">
-        <v>168</v>
-      </c>
-      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>412</v>
+      </c>
+      <c r="B27" t="s">
+        <v>440</v>
       </c>
       <c r="C27">
-        <v>435</v>
-      </c>
-      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>422</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
+        <v>408</v>
+      </c>
+      <c r="B28" t="s">
+        <v>440</v>
       </c>
       <c r="C28">
-        <v>381</v>
-      </c>
-      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>440</v>
       </c>
       <c r="C29">
-        <v>174</v>
-      </c>
-      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+        <v>398</v>
+      </c>
+      <c r="B30" t="s">
+        <v>440</v>
       </c>
       <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
+        <v>403</v>
+      </c>
+      <c r="B31" t="s">
+        <v>440</v>
       </c>
       <c r="C31">
-        <v>41</v>
-      </c>
-      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>426</v>
+        <v>411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>440</v>
       </c>
       <c r="C32">
-        <v>120</v>
-      </c>
-      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H43" xr:uid="{4F126F61-AA49-451A-B5A2-594628A094AE}"/>
+  <autoFilter ref="A1:G32" xr:uid="{DE0B36B5-F101-47F5-B54F-A9D9DC6FEE16}"/>
+  <sortState ref="A2:G32">
+    <sortCondition descending="1" ref="C2:C32"/>
+    <sortCondition ref="B2:B32" customList="Yes"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF7934-F6B7-43A9-B057-6C42E04D35E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CEE11F-C792-4300-B3E0-CCA8514215FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5659,6 +5659,9 @@
       <c r="A19" t="s">
         <v>413</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="C19">
         <v>189</v>
       </c>
@@ -5834,6 +5837,9 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>426</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32">
         <v>120</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CEE11F-C792-4300-B3E0-CCA8514215FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B53569-2D43-4E98-B1C2-FD1D876D171E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5732,6 +5732,9 @@
       <c r="A24" t="s">
         <v>418</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24">
         <v>584</v>
       </c>
@@ -5770,6 +5773,9 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>421</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27">
         <v>435</v>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B53569-2D43-4E98-B1C2-FD1D876D171E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407066B5-3AC6-44CA-AAFE-10F1D252390F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mod汉化状态" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="454">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1378,6 +1378,49 @@
   </si>
   <si>
     <t>Tec Tech 3.3.8</t>
+  </si>
+  <si>
+    <t>New Mods</t>
+  </si>
+  <si>
+    <t>Bartworks 0.3.21</t>
+  </si>
+  <si>
+    <t>Core Mod 1.6.07</t>
+  </si>
+  <si>
+    <t>Electromagictools 1.2.7.5</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.10</t>
+  </si>
+  <si>
+    <t>GT++ 1.7.03.89</t>
+  </si>
+  <si>
+    <t>IFU 1.5</t>
+  </si>
+  <si>
+    <t>Open Computers 1.7.4.1265</t>
+  </si>
+  <si>
+    <t>Open Security 1.0.117</t>
+  </si>
+  <si>
+    <t>Special Mobs 3.3.1</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.3.9</t>
+  </si>
+  <si>
+    <t>Waila Plugins 0.2.1</t>
+  </si>
+  <si>
+    <t>Witching Gadgets 1.2.9h</t>
+  </si>
+  <si>
+    <t>2.0.6.8更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1775,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -3308,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,24 +3363,25 @@
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="6" max="6" width="29.625" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3349,8 +3393,11 @@
         <v>434</v>
       </c>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3362,8 +3409,11 @@
         <v>360</v>
       </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3372,7 +3422,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3388,8 +3438,11 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3402,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3415,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3429,8 +3482,11 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3443,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3453,8 +3509,11 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3464,8 +3523,11 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3475,8 +3537,11 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3486,8 +3551,11 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3497,8 +3565,11 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3508,8 +3579,11 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3519,8 +3593,11 @@
       <c r="D20" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3530,8 +3607,11 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3541,8 +3621,11 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3552,22 +3635,28 @@
       <c r="D23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3576,14 +3665,14 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3592,7 +3681,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3601,7 +3690,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -3610,12 +3699,12 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -5375,7 +5464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407066B5-3AC6-44CA-AAFE-10F1D252390F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA28FFD-A2AC-4FA7-AF2E-C429D193AB6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3351,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3366,22 +3366,22 @@
     <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3441,8 +3441,11 @@
       <c r="I9" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3512,8 +3515,11 @@
       <c r="I14" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>176</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA28FFD-A2AC-4FA7-AF2E-C429D193AB6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A10D1D-2450-470D-B60C-B0774F53C194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,13 +1413,14 @@
     <t>Tec Tech 3.3.9</t>
   </si>
   <si>
+    <t>Witching Gadgets 1.2.9h</t>
+  </si>
+  <si>
+    <t>2.0.6.8更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Waila Plugins 0.2.1</t>
-  </si>
-  <si>
-    <t>Witching Gadgets 1.2.9h</t>
-  </si>
-  <si>
-    <t>2.0.6.8更新日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3354,7 +3355,7 @@
   <dimension ref="A1:J380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3394,7 +3395,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="I6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3532,6 +3533,9 @@
       <c r="I15" t="s">
         <v>443</v>
       </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3546,8 +3550,11 @@
       <c r="I16" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3560,8 +3567,11 @@
       <c r="I17" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3574,8 +3584,11 @@
       <c r="I18" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3588,8 +3601,11 @@
       <c r="I19" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3602,8 +3618,11 @@
       <c r="I20" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3616,8 +3635,11 @@
       <c r="I21" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3630,8 +3652,11 @@
       <c r="I22" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3642,27 +3667,30 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="I24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3671,14 +3699,14 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3687,7 +3715,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3724,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -3705,12 +3733,12 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A10D1D-2450-470D-B60C-B0774F53C194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC5F2-D772-44D8-B8B5-A6EAE49706A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3355,7 +3355,7 @@
   <dimension ref="A1:J380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3363,7 +3363,7 @@
     <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3394,9 +3394,10 @@
         <v>434</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>452</v>
       </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3410,9 +3411,10 @@
         <v>360</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>440</v>
       </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3422,6 +3424,8 @@
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3439,10 +3443,10 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3458,6 +3462,8 @@
       <c r="G10" s="5">
         <v>1</v>
       </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3471,6 +3477,8 @@
       <c r="G11" s="5">
         <v>2</v>
       </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3486,9 +3494,10 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3502,6 +3511,8 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3513,10 +3524,10 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3530,10 +3541,10 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3547,10 +3558,10 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3564,10 +3575,10 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3581,10 +3592,10 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3598,10 +3609,10 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3615,10 +3626,10 @@
       <c r="D20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3632,10 +3643,10 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3649,10 +3660,10 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3666,10 +3677,10 @@
       <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3679,8 +3690,11 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-      <c r="I24" t="s">
+      <c r="I24" s="6" t="s">
         <v>451</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC5F2-D772-44D8-B8B5-A6EAE49706A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB01DF7-B2C7-47BA-864E-BD32BA23EC14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="468">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1422,6 +1422,49 @@
   <si>
     <t>Waila Plugins 0.2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.7.0更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controlling 1.0.0</t>
+  </si>
+  <si>
+    <t>Avaritia 1.15</t>
+  </si>
+  <si>
+    <t>Bartworks 0.3.22</t>
+  </si>
+  <si>
+    <t>Core Mod 1.6.10</t>
+  </si>
+  <si>
+    <t>Crops++ 1.3.2</t>
+  </si>
+  <si>
+    <t>Crop Load Core 0.1.3</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.12</t>
+  </si>
+  <si>
+    <t>GT Tweaker 1.7.1</t>
+  </si>
+  <si>
+    <t>IC2 Nei Plugin 1.2.2</t>
+  </si>
+  <si>
+    <t>Loot Games 1.0.17</t>
+  </si>
+  <si>
+    <t>SpecialMobs 3.3.2</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.6.10</t>
+  </si>
+  <si>
+    <t>Witching Gadgets 1.2.9i-GTNH</t>
   </si>
 </sst>
 </file>
@@ -3352,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J380"/>
+  <dimension ref="A1:M380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3365,24 +3408,25 @@
     <col min="6" max="6" width="29.625" customWidth="1"/>
     <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3398,8 +3442,12 @@
         <v>452</v>
       </c>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3415,8 +3463,12 @@
         <v>440</v>
       </c>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3426,8 +3478,10 @@
       <c r="G8" s="5"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3449,8 +3503,14 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3464,8 +3524,10 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3479,8 +3541,10 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3498,8 +3562,12 @@
         <v>360</v>
       </c>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3513,8 +3581,10 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3530,8 +3600,14 @@
       <c r="J14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3547,8 +3623,14 @@
       <c r="J15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3564,8 +3646,14 @@
       <c r="J16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3581,8 +3669,14 @@
       <c r="J17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3598,8 +3692,14 @@
       <c r="J18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3615,8 +3715,14 @@
       <c r="J19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3632,8 +3738,14 @@
       <c r="J20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3649,8 +3761,14 @@
       <c r="J21" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3666,8 +3784,14 @@
       <c r="J22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3683,8 +3807,14 @@
       <c r="J23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -3696,15 +3826,27 @@
       <c r="J24" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3713,14 +3855,14 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3729,7 +3871,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3738,7 +3880,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -3747,12 +3889,12 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>

--- a/mod汉化进度.xlsx
+++ b/mod汉化进度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB01DF7-B2C7-47BA-864E-BD32BA23EC14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65170B67-ED1B-4D5E-A35C-B806C25D9675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="490">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1465,6 +1465,73 @@
   </si>
   <si>
     <t>Witching Gadgets 1.2.9i-GTNH</t>
+  </si>
+  <si>
+    <t>Bartworks 0.4.16</t>
+  </si>
+  <si>
+    <t>Blood Arsenal 1.2-8</t>
+  </si>
+  <si>
+    <t>Core Mod 1.6.14</t>
+  </si>
+  <si>
+    <t>Crops++ 1.3.5</t>
+  </si>
+  <si>
+    <t>Crop Load Core 0.1.4</t>
+  </si>
+  <si>
+    <t>Gt Nei ore plugin 1.0.7</t>
+  </si>
+  <si>
+    <t>GT-PlusPlus 1.7.02.99-pre</t>
+  </si>
+  <si>
+    <t>GT Scanner Mod 1.5.4</t>
+  </si>
+  <si>
+    <t>IFU 1.6</t>
+  </si>
+  <si>
+    <t>Loot Games 1.0.18</t>
+  </si>
+  <si>
+    <t>Not Enough Items 1.0.6-GTNH</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.6.11</t>
+  </si>
+  <si>
+    <t>Universal Singularities 8.5</t>
+  </si>
+  <si>
+    <t>Warp Theory 1.0k-Dev</t>
+  </si>
+  <si>
+    <t>Witching Gadgets 1.2.9k-GTNH</t>
+  </si>
+  <si>
+    <t>InGame Info XML 2.8.1.82</t>
+  </si>
+  <si>
+    <t>Lunatrius Core 1.1.2.21</t>
+  </si>
+  <si>
+    <t>Electro Magic Tools 1.2.7.7</t>
+  </si>
+  <si>
+    <t>Forestry 4.2.20.0</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.16</t>
+  </si>
+  <si>
+    <t>Thaumic Horizons 1.1.9.9</t>
+  </si>
+  <si>
+    <t>2.0.7.5更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1862,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3395,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M380"/>
+  <dimension ref="A1:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3409,24 +3476,25 @@
     <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
     <col min="12" max="12" width="28.75" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3446,8 +3514,12 @@
         <v>454</v>
       </c>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3467,8 +3539,12 @@
         <v>359</v>
       </c>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3480,8 +3556,10 @@
       <c r="J8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3509,8 +3587,14 @@
       <c r="M9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3526,8 +3610,14 @@
       <c r="J10" s="5"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3543,8 +3633,10 @@
       <c r="J11" s="5"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3566,8 +3658,10 @@
         <v>360</v>
       </c>
       <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3583,8 +3677,12 @@
       <c r="J13" s="5"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3606,8 +3704,10 @@
       <c r="M14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3629,8 +3729,14 @@
       <c r="M15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3652,8 +3758,14 @@
       <c r="M16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3675,8 +3787,14 @@
       <c r="M17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3698,8 +3816,14 @@
       <c r="M18" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3721,8 +3845,14 @@
       <c r="M19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3744,8 +3874,14 @@
       <c r="M20" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="P20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3767,8 +3903,14 @@
       <c r="M21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3790,8 +3932,14 @@
       <c r="M22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3813,8 +3961,14 @@
       <c r="M23" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="P23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -3832,8 +3986,14 @@
       <c r="M24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="P24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3845,8 +4005,14 @@
       <c r="M25" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3854,15 +4020,27 @@
         <v>370</v>
       </c>
       <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="P26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="P27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3870,8 +4048,14 @@
         <v>371</v>
       </c>
       <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3879,8 +4063,14 @@
         <v>372</v>
       </c>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -3888,73 +4078,103 @@
         <v>373</v>
       </c>
       <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O32" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O33" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="O34" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -3962,22 +4182,22 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>192</v>
       </c>
